--- a/Infatlan_STEI_Agencias/pages/plantilla/PlantillaAgencia.xlsx
+++ b/Infatlan_STEI_Agencias/pages/plantilla/PlantillaAgencia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acamador\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acamador\source\repos\Infatlan_STEI\Infatlan_STEI_Agencias\pages\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622FB165-D924-4BAA-9CA4-364898330035}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54785E2-32F7-48D7-91FC-9F021BE4C19A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F57F21E7-199E-49D3-8F62-09BDACB804C6}"/>
   </bookViews>
@@ -33,13 +33,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>idAgencia</t>
-  </si>
-  <si>
     <t>fechaMantenimiento</t>
   </si>
   <si>
     <t>idAreaAgencia</t>
+  </si>
+  <si>
+    <t>codigoAgencia</t>
   </si>
 </sst>
 </file>
@@ -407,9 +407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28605870-3E4E-408C-BC9B-22759B4CF74D}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -420,13 +418,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
